--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_4_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_4_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1313333.477602647</v>
+        <v>1345911.692117846</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584666</v>
+        <v>460545.8926584665</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075578</v>
+        <v>8768687.11007558</v>
       </c>
     </row>
     <row r="9">
@@ -668,64 +670,64 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>196.9826481283071</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G2" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -753,13 +755,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -792,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>178.5792514699294</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>17.61720206838995</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>198.0343424855785</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>109.0269011714235</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>20.61824390097377</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1026,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,67 +1141,67 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>198.7050131246913</v>
       </c>
       <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
       <c r="Y8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1230,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1269,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>159.6212349762905</v>
       </c>
       <c r="W9" t="n">
-        <v>184.6308886574542</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1345,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>163.6851955497071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1537,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>36.48436605884934</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>54.8687916362018</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>92.4784086463653</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>163.6851955497071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>263.8630367120718</v>
+        <v>316.3266263467471</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1706,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1774,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>36.48436605884934</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>92.47840864636531</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>54.8687916362018</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.6298096400611</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>207.9316113046338</v>
+        <v>135.2596755014025</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1929,19 +1931,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>76.32943916025816</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>24.64815776426755</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749142</v>
+        <v>59.8393013974914</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>43.26585203414616</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2062,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>116.1611518470178</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>269.1039364950021</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
         <v>163.6851955497072</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S20" t="n">
         <v>181.3631617334038</v>
@@ -2135,16 +2137,16 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>65.78861235187041</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>68.97619012750164</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2175,10 +2177,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>82.12649100043105</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>159.6212195484502</v>
@@ -2226,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2296,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>43.03218749909144</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>16.60419956430074</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>50.56806592571633</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>26.17681189757447</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2409,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>144.1648043931067</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
         <v>225.8986597023843</v>
@@ -2463,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>62.06422602608475</v>
       </c>
     </row>
     <row r="25">
@@ -2479,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>116.9381973730935</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>88.59832967195071</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>62.50038840473182</v>
+        <v>167.7674277838165</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2646,13 +2648,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2685,10 +2687,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
-        <v>60.36693997173244</v>
+        <v>172.5161931289813</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>111.5887103733622</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>156.8482076906872</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>325.4540499811592</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.089049841944</v>
+        <v>351.8251894796512</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2880,16 +2882,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2925,10 +2927,10 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V30" t="n">
-        <v>95.62025615464796</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>103.9357482121867</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3004,16 +3006,16 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>43.3560697996877</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>41.01167815745392</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3038,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>8.113072059528985</v>
       </c>
       <c r="H32" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3089,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3120,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749142</v>
+        <v>6.456834824088546</v>
       </c>
       <c r="S33" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
-        <v>60.36693997173244</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>115.1165353722833</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>111.060750249129</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>31.02665847869142</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>61.77703618559288</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3351,13 +3353,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>76.32943916025816</v>
       </c>
       <c r="H36" t="n">
         <v>105.9637990594094</v>
@@ -3390,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>127.1081688162649</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>13.69289171884184</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,16 +3438,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.03029935583487</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3506,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3518,10 +3520,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>302.3640166638775</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>63.63489272421005</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3585,10 +3587,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -3597,10 +3599,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>47.97495438228756</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S39" t="n">
-        <v>29.38391736390425</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
         <v>197.5472709665096</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3670,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>44.43601816396536</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3703,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>156.8482076906872</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3743,13 +3745,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>388.9701345428937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3785,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>66.23167121454985</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3831,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>6.456834824088546</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
-        <v>82.28018995116467</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,31 +3897,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>30.14164366481007</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>59.57056692594167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3983,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>74.30182844096062</v>
       </c>
       <c r="U44" t="n">
         <v>251.2485578939812</v>
@@ -4037,13 +4039,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.25144273425413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4059,13 +4061,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>87.08036771626205</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>136.6941370086349</v>
@@ -4104,7 +4106,7 @@
         <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>197.5472709665096</v>
@@ -4116,7 +4118,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>48.23721201220846</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>4.812045700447308</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H46" t="n">
-        <v>149.8134234192865</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C2" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D2" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E2" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F2" t="n">
-        <v>233.7108255783361</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4364,7 +4366,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W2" t="n">
         <v>720.6083788665362</v>
@@ -4373,7 +4375,7 @@
         <v>720.6083788665362</v>
       </c>
       <c r="Y2" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>332.4649978087242</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C3" t="n">
-        <v>158.0119685275972</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D3" t="n">
-        <v>158.0119685275972</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E3" t="n">
-        <v>158.0119685275972</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F3" t="n">
-        <v>158.0119685275972</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,7 +4415,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
         <v>234.810827406191</v>
@@ -4440,19 +4442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>783.6740732177782</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>783.6740732177782</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>540.2252965736782</v>
+        <v>946.2620019062019</v>
       </c>
       <c r="X3" t="n">
-        <v>540.2252965736782</v>
+        <v>738.4105017006691</v>
       </c>
       <c r="Y3" t="n">
-        <v>332.4649978087242</v>
+        <v>530.6502029357152</v>
       </c>
     </row>
     <row r="4">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.68395448076474</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C5" t="n">
-        <v>41.68395448076474</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D5" t="n">
-        <v>41.68395448076474</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E5" t="n">
-        <v>41.68395448076474</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4595,22 +4597,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>485.167420504237</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>485.167420504237</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>485.167420504237</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>485.167420504237</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.7186438601369</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>277.6959718698396</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="C6" t="n">
-        <v>277.6959718698396</v>
+        <v>359.1939133246643</v>
       </c>
       <c r="D6" t="n">
-        <v>277.6959718698396</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="E6" t="n">
-        <v>277.6959718698396</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F6" t="n">
-        <v>131.1614138967246</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G6" t="n">
         <v>110.334904905842</v>
@@ -4656,13 +4658,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4674,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W6" t="n">
-        <v>485.4562706347935</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X6" t="n">
-        <v>485.4562706347935</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y6" t="n">
-        <v>277.6959718698396</v>
+        <v>533.6469426057913</v>
       </c>
     </row>
     <row r="7">
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C8" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D8" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E8" t="n">
-        <v>749.627473042513</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>506.1786963984129</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y8" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>193.7341723913397</v>
+        <v>284.787934186969</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>528.2367108310691</v>
       </c>
       <c r="W9" t="n">
-        <v>777.5613083818946</v>
+        <v>284.787934186969</v>
       </c>
       <c r="X9" t="n">
-        <v>569.7098081763618</v>
+        <v>284.787934186969</v>
       </c>
       <c r="Y9" t="n">
-        <v>361.9495094114078</v>
+        <v>284.787934186969</v>
       </c>
     </row>
     <row r="10">
@@ -4978,25 +4980,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5039,16 +5041,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N11" t="n">
         <v>1610.799342072557</v>
@@ -5121,7 +5123,7 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K12" t="n">
-        <v>336.0641406922996</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L12" t="n">
         <v>705.6153558007836</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C13" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D13" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E13" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F13" t="n">
-        <v>102.3180182963936</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G13" t="n">
-        <v>102.3180182963936</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="H13" t="n">
-        <v>102.3180182963936</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I13" t="n">
         <v>102.3180182963936</v>
@@ -5200,7 +5202,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702978</v>
       </c>
       <c r="L13" t="n">
         <v>194.9121237200978</v>
@@ -5209,7 +5211,7 @@
         <v>318.5868368362075</v>
       </c>
       <c r="N13" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228449</v>
       </c>
       <c r="O13" t="n">
         <v>545.2763053496715</v>
@@ -5218,31 +5220,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S13" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T13" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U13" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V13" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W13" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X13" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y13" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1688.082170195221</v>
+        <v>900.847885737694</v>
       </c>
       <c r="C14" t="n">
-        <v>1319.119653254809</v>
+        <v>900.847885737694</v>
       </c>
       <c r="D14" t="n">
-        <v>960.8539546480588</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="E14" t="n">
-        <v>960.8539546480588</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="F14" t="n">
-        <v>960.8539546480588</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G14" t="n">
         <v>542.5821871309436</v>
@@ -5276,16 +5278,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
@@ -5303,25 +5305,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S14" t="n">
-        <v>2344.749822082216</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T14" t="n">
-        <v>2344.749822082216</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U14" t="n">
-        <v>2344.749822082216</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="V14" t="n">
-        <v>2344.749822082216</v>
+        <v>1610.5090625082</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.749822082216</v>
+        <v>1610.5090625082</v>
       </c>
       <c r="X14" t="n">
-        <v>2078.221502171033</v>
+        <v>1290.987217713506</v>
       </c>
       <c r="Y14" t="n">
-        <v>1688.082170195221</v>
+        <v>900.847885737694</v>
       </c>
     </row>
     <row r="15">
@@ -5358,7 +5360,7 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K15" t="n">
-        <v>336.0641406922996</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L15" t="n">
         <v>705.6153558007836</v>
@@ -5367,13 +5369,13 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N15" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O15" t="n">
-        <v>1887.88481026779</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P15" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>607.7685734363102</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="C16" t="n">
-        <v>607.7685734363102</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="D16" t="n">
-        <v>607.7685734363102</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="E16" t="n">
-        <v>607.7685734363102</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="F16" t="n">
-        <v>570.9156784273715</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="G16" t="n">
-        <v>401.7777381738809</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="H16" t="n">
-        <v>242.8011754972942</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="I16" t="n">
         <v>102.3180182963936</v>
@@ -5437,7 +5439,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K16" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702978</v>
       </c>
       <c r="L16" t="n">
         <v>194.9121237200978</v>
@@ -5446,7 +5448,7 @@
         <v>318.5868368362075</v>
       </c>
       <c r="N16" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228449</v>
       </c>
       <c r="O16" t="n">
         <v>545.2763053496715</v>
@@ -5455,31 +5457,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R16" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="S16" t="n">
-        <v>607.7685734363102</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="T16" t="n">
-        <v>607.7685734363102</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="U16" t="n">
-        <v>607.7685734363102</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="V16" t="n">
-        <v>607.7685734363102</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="W16" t="n">
-        <v>607.7685734363102</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="X16" t="n">
-        <v>607.7685734363102</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.7685734363102</v>
+        <v>195.7305522826212</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.89499644164432</v>
+        <v>1950.55522927932</v>
       </c>
       <c r="C17" t="n">
-        <v>46.89499644164432</v>
+        <v>1950.55522927932</v>
       </c>
       <c r="D17" t="n">
-        <v>46.89499644164432</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="E17" t="n">
-        <v>46.89499644164432</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F17" t="n">
-        <v>46.89499644164432</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G17" t="n">
-        <v>46.89499644164432</v>
+        <v>377.2436057676031</v>
       </c>
       <c r="H17" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="I17" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915532</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L17" t="n">
         <v>762.591673824455</v>
@@ -5534,31 +5536,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q17" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S17" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T17" t="n">
-        <v>2134.717891471475</v>
+        <v>1950.55522927932</v>
       </c>
       <c r="U17" t="n">
-        <v>1880.931469356342</v>
+        <v>1950.55522927932</v>
       </c>
       <c r="V17" t="n">
-        <v>1549.868582012772</v>
+        <v>1950.55522927932</v>
       </c>
       <c r="W17" t="n">
-        <v>1197.099926742658</v>
+        <v>1950.55522927932</v>
       </c>
       <c r="X17" t="n">
-        <v>823.6341684815778</v>
+        <v>1950.55522927932</v>
       </c>
       <c r="Y17" t="n">
-        <v>433.4948365057661</v>
+        <v>1950.55522927932</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>622.1327649551154</v>
+        <v>622.1327649551163</v>
       </c>
       <c r="C18" t="n">
-        <v>447.6797356739884</v>
+        <v>447.6797356739893</v>
       </c>
       <c r="D18" t="n">
-        <v>298.7453260127371</v>
+        <v>298.745326012738</v>
       </c>
       <c r="E18" t="n">
-        <v>221.6448824165167</v>
+        <v>139.5078710072825</v>
       </c>
       <c r="F18" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G18" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H18" t="n">
         <v>114.6107419524668</v>
       </c>
       <c r="I18" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J18" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K18" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498449</v>
       </c>
       <c r="L18" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583288</v>
       </c>
       <c r="M18" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N18" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O18" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P18" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="Q18" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R18" t="n">
-        <v>2284.306083296871</v>
+        <v>2284.306083296872</v>
       </c>
       <c r="S18" t="n">
-        <v>2123.072528197426</v>
+        <v>2123.072528197427</v>
       </c>
       <c r="T18" t="n">
-        <v>1923.529830251457</v>
+        <v>1923.529830251458</v>
       </c>
       <c r="U18" t="n">
-        <v>1695.349365905614</v>
+        <v>1695.349365905615</v>
       </c>
       <c r="V18" t="n">
-        <v>1460.197257673872</v>
+        <v>1460.197257673873</v>
       </c>
       <c r="W18" t="n">
-        <v>1205.95990094567</v>
+        <v>1205.959900945671</v>
       </c>
       <c r="X18" t="n">
-        <v>998.1084007401373</v>
+        <v>998.1084007401382</v>
       </c>
       <c r="Y18" t="n">
-        <v>790.3481019751835</v>
+        <v>790.3481019751844</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.89499644164432</v>
+        <v>90.59787728421622</v>
       </c>
       <c r="C19" t="n">
-        <v>46.89499644164432</v>
+        <v>90.59787728421622</v>
       </c>
       <c r="D19" t="n">
-        <v>46.89499644164432</v>
+        <v>90.59787728421622</v>
       </c>
       <c r="E19" t="n">
-        <v>46.89499644164432</v>
+        <v>90.59787728421622</v>
       </c>
       <c r="F19" t="n">
-        <v>46.89499644164432</v>
+        <v>90.59787728421622</v>
       </c>
       <c r="G19" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="H19" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="I19" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J19" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="K19" t="n">
-        <v>87.46721626702976</v>
+        <v>87.4672162670298</v>
       </c>
       <c r="L19" t="n">
         <v>194.9121237200978</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362076</v>
       </c>
       <c r="N19" t="n">
-        <v>444.7554581228448</v>
+        <v>444.755458122845</v>
       </c>
       <c r="O19" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496717</v>
       </c>
       <c r="P19" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="Q19" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="R19" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="S19" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="T19" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="U19" t="n">
-        <v>164.2294932568138</v>
+        <v>318.5874281822336</v>
       </c>
       <c r="V19" t="n">
-        <v>164.2294932568138</v>
+        <v>318.5874281822336</v>
       </c>
       <c r="W19" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822336</v>
       </c>
       <c r="X19" t="n">
-        <v>46.89499644164432</v>
+        <v>90.59787728421622</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.89499644164432</v>
+        <v>90.59787728421622</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1427.279502709952</v>
+        <v>1183.366862147115</v>
       </c>
       <c r="C20" t="n">
-        <v>1427.279502709952</v>
+        <v>814.4043452067033</v>
       </c>
       <c r="D20" t="n">
-        <v>1427.279502709952</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="E20" t="n">
-        <v>1041.491250111708</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="F20" t="n">
-        <v>630.5053453221001</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G20" t="n">
-        <v>212.2335778049849</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H20" t="n">
         <v>212.2335778049849</v>
@@ -5756,7 +5758,7 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M20" t="n">
         <v>1190.549107376118</v>
@@ -5783,19 +5785,19 @@
         <v>1867.1984047608</v>
       </c>
       <c r="U20" t="n">
-        <v>1800.745260971032</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V20" t="n">
-        <v>1800.745260971032</v>
+        <v>1536.135517417229</v>
       </c>
       <c r="W20" t="n">
-        <v>1800.745260971032</v>
+        <v>1183.366862147115</v>
       </c>
       <c r="X20" t="n">
-        <v>1427.279502709952</v>
+        <v>1183.366862147115</v>
       </c>
       <c r="Y20" t="n">
-        <v>1427.279502709952</v>
+        <v>1183.366862147115</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>790.3481019751835</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C21" t="n">
-        <v>790.3481019751835</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D21" t="n">
-        <v>641.4136923139322</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E21" t="n">
-        <v>482.1762373084767</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F21" t="n">
-        <v>335.6416793353617</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G21" t="n">
-        <v>197.5667934680537</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H21" t="n">
         <v>114.6107419524668</v>
@@ -5829,52 +5831,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K21" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L21" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M21" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N21" t="n">
-        <v>1637.630816213677</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O21" t="n">
-        <v>2039.343247810003</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P21" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S21" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T21" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U21" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V21" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W21" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X21" t="n">
-        <v>998.1084007401373</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y21" t="n">
-        <v>790.3481019751835</v>
+        <v>1058.552139525482</v>
       </c>
     </row>
     <row r="22">
@@ -5944,10 +5946,10 @@
         <v>2344.749822082216</v>
       </c>
       <c r="V22" t="n">
-        <v>2090.06533387633</v>
+        <v>2301.282966022528</v>
       </c>
       <c r="W22" t="n">
-        <v>1800.648163839369</v>
+        <v>2011.865795985567</v>
       </c>
       <c r="X22" t="n">
         <v>1783.87624508755</v>
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1011.932809118479</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="C23" t="n">
-        <v>1011.932809118479</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="D23" t="n">
-        <v>1011.932809118479</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E23" t="n">
-        <v>1011.932809118479</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F23" t="n">
-        <v>960.8539546480588</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G23" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L23" t="n">
         <v>762.591673824455</v>
@@ -6008,31 +6010,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T23" t="n">
-        <v>2124.767062713795</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U23" t="n">
-        <v>2124.767062713795</v>
+        <v>2318.308597943252</v>
       </c>
       <c r="V23" t="n">
-        <v>2124.767062713795</v>
+        <v>2318.308597943252</v>
       </c>
       <c r="W23" t="n">
-        <v>1771.998407443681</v>
+        <v>1965.539942673138</v>
       </c>
       <c r="X23" t="n">
-        <v>1398.532649182601</v>
+        <v>1592.074184412058</v>
       </c>
       <c r="Y23" t="n">
-        <v>1398.532649182601</v>
+        <v>1201.934852436247</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>676.0544483625931</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C24" t="n">
-        <v>501.6014190814661</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D24" t="n">
-        <v>352.6670094202149</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E24" t="n">
-        <v>193.4295544147594</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F24" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G24" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H24" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K24" t="n">
         <v>121.6684232076319</v>
@@ -6090,28 +6092,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S24" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T24" t="n">
-        <v>1977.451513658935</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U24" t="n">
-        <v>1749.271049313092</v>
+        <v>1917.026659790404</v>
       </c>
       <c r="V24" t="n">
-        <v>1514.118941081349</v>
+        <v>1681.874551558662</v>
       </c>
       <c r="W24" t="n">
-        <v>1259.881584353148</v>
+        <v>1427.63719483046</v>
       </c>
       <c r="X24" t="n">
-        <v>1052.030084147615</v>
+        <v>1219.785694624927</v>
       </c>
       <c r="Y24" t="n">
-        <v>844.2697853826612</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2190.391887156797</v>
+        <v>136.388258736544</v>
       </c>
       <c r="C25" t="n">
-        <v>2190.391887156797</v>
+        <v>136.388258736544</v>
       </c>
       <c r="D25" t="n">
-        <v>2072.272495870844</v>
+        <v>136.388258736544</v>
       </c>
       <c r="E25" t="n">
-        <v>1924.359402288451</v>
+        <v>136.388258736544</v>
       </c>
       <c r="F25" t="n">
-        <v>1924.359402288451</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G25" t="n">
-        <v>1924.359402288451</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H25" t="n">
-        <v>1924.359402288451</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K25" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L25" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M25" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N25" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O25" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R25" t="n">
-        <v>2190.391887156797</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S25" t="n">
-        <v>2190.391887156797</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T25" t="n">
-        <v>2190.391887156797</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="U25" t="n">
-        <v>2190.391887156797</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="V25" t="n">
-        <v>2190.391887156797</v>
+        <v>136.388258736544</v>
       </c>
       <c r="W25" t="n">
-        <v>2190.391887156797</v>
+        <v>136.388258736544</v>
       </c>
       <c r="X25" t="n">
-        <v>2190.391887156797</v>
+        <v>136.388258736544</v>
       </c>
       <c r="Y25" t="n">
-        <v>2190.391887156797</v>
+        <v>136.388258736544</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1950.55522927932</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C26" t="n">
-        <v>1950.55522927932</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D26" t="n">
-        <v>1592.28953067257</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E26" t="n">
-        <v>1206.501278074326</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F26" t="n">
-        <v>795.5153732847182</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G26" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H26" t="n">
         <v>46.89499644164432</v>
@@ -6224,16 +6226,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L26" t="n">
-        <v>762.5916738244551</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N26" t="n">
         <v>1610.799342072557</v>
@@ -6248,28 +6250,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S26" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T26" t="n">
-        <v>2344.749822082216</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U26" t="n">
-        <v>2281.618116622891</v>
+        <v>1880.931469356342</v>
       </c>
       <c r="V26" t="n">
-        <v>1950.55522927932</v>
+        <v>1549.868582012772</v>
       </c>
       <c r="W26" t="n">
-        <v>1950.55522927932</v>
+        <v>1197.099926742658</v>
       </c>
       <c r="X26" t="n">
-        <v>1950.55522927932</v>
+        <v>823.6341684815778</v>
       </c>
       <c r="Y26" t="n">
-        <v>1950.55522927932</v>
+        <v>433.4948365057661</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.8792202047736</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C27" t="n">
-        <v>814.4261909236466</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D27" t="n">
-        <v>665.4917812623953</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E27" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F27" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G27" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H27" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L27" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M27" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N27" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O27" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P27" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
@@ -6333,22 +6335,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T27" t="n">
-        <v>2123.072528197426</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U27" t="n">
-        <v>2062.095821155272</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.94371292353</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.706356195328</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.854855989795</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y27" t="n">
-        <v>1157.094557224842</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C28" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D28" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E28" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F28" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G28" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H28" t="n">
         <v>46.89499644164432</v>
@@ -6415,19 +6417,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U28" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V28" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W28" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X28" t="n">
-        <v>318.5874281822333</v>
+        <v>449.3360404154141</v>
       </c>
       <c r="Y28" t="n">
-        <v>318.5874281822333</v>
+        <v>228.543461271884</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1700.5813240651</v>
+        <v>1568.010650042283</v>
       </c>
       <c r="C29" t="n">
-        <v>1700.5813240651</v>
+        <v>1199.048133101871</v>
       </c>
       <c r="D29" t="n">
-        <v>1700.5813240651</v>
+        <v>1199.048133101871</v>
       </c>
       <c r="E29" t="n">
-        <v>1371.839859437666</v>
+        <v>813.2598805036268</v>
       </c>
       <c r="F29" t="n">
-        <v>960.8539546480588</v>
+        <v>402.2739757140193</v>
       </c>
       <c r="G29" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H29" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
@@ -6485,28 +6487,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S29" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T29" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U29" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V29" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W29" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X29" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y29" t="n">
-        <v>2087.181164129222</v>
+        <v>1954.610490106405</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C30" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D30" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E30" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F30" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G30" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H30" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L30" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.568096156132</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O30" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P30" t="n">
         <v>2193.291384540003</v>
@@ -6573,19 +6575,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U30" t="n">
-        <v>1923.529830251457</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y30" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="31">
@@ -6652,19 +6654,19 @@
         <v>379.8701515943957</v>
       </c>
       <c r="U31" t="n">
-        <v>379.8701515943957</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="V31" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W31" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X31" t="n">
-        <v>151.8806006963783</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y31" t="n">
-        <v>151.8806006963783</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1991.981166812102</v>
+        <v>1663.793677558702</v>
       </c>
       <c r="C32" t="n">
-        <v>1950.55522927932</v>
+        <v>1294.831160618291</v>
       </c>
       <c r="D32" t="n">
-        <v>1592.28953067257</v>
+        <v>936.5654620115404</v>
       </c>
       <c r="E32" t="n">
-        <v>1206.501278074326</v>
+        <v>550.7772094132961</v>
       </c>
       <c r="F32" t="n">
-        <v>795.5153732847182</v>
+        <v>550.7772094132961</v>
       </c>
       <c r="G32" t="n">
-        <v>377.243605767603</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H32" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L32" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N32" t="n">
         <v>1610.799342072557</v>
@@ -6719,31 +6721,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R32" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S32" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T32" t="n">
-        <v>2344.749822082216</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U32" t="n">
-        <v>2344.749822082216</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="V32" t="n">
-        <v>2344.749822082216</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="W32" t="n">
-        <v>1991.981166812102</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="X32" t="n">
-        <v>1991.981166812102</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="Y32" t="n">
-        <v>1991.981166812102</v>
+        <v>2050.393517622824</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.8792202047736</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C33" t="n">
-        <v>814.4261909236466</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D33" t="n">
-        <v>665.4917812623953</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E33" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F33" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G33" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
@@ -6780,49 +6782,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K33" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L33" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M33" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N33" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O33" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P33" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R33" t="n">
-        <v>2284.306083296871</v>
+        <v>2338.227766704349</v>
       </c>
       <c r="S33" t="n">
-        <v>2123.072528197426</v>
+        <v>2176.994211604904</v>
       </c>
       <c r="T33" t="n">
-        <v>2123.072528197426</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U33" t="n">
-        <v>2062.095821155272</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.94371292353</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.706356195328</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.854855989795</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y33" t="n">
-        <v>1157.094557224842</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="34">
@@ -6883,22 +6885,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S34" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T34" t="n">
-        <v>379.8701515943957</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="U34" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V34" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W34" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X34" t="n">
-        <v>267.6875755851744</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y34" t="n">
         <v>46.89499644164432</v>
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1542.980280095866</v>
+        <v>447.1975724514413</v>
       </c>
       <c r="C35" t="n">
-        <v>1174.017763155455</v>
+        <v>78.2350555110296</v>
       </c>
       <c r="D35" t="n">
-        <v>1174.017763155455</v>
+        <v>78.2350555110296</v>
       </c>
       <c r="E35" t="n">
-        <v>788.2295105572106</v>
+        <v>78.2350555110296</v>
       </c>
       <c r="F35" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G35" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H35" t="n">
         <v>46.89499644164432</v>
@@ -6962,25 +6964,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S35" t="n">
-        <v>2344.749822082216</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T35" t="n">
-        <v>2344.749822082216</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="U35" t="n">
-        <v>2344.749822082216</v>
+        <v>1907.76828710506</v>
       </c>
       <c r="V35" t="n">
-        <v>2344.749822082216</v>
+        <v>1576.705399761489</v>
       </c>
       <c r="W35" t="n">
-        <v>1991.981166812102</v>
+        <v>1223.936744491375</v>
       </c>
       <c r="X35" t="n">
-        <v>1991.981166812102</v>
+        <v>1223.936744491375</v>
       </c>
       <c r="Y35" t="n">
-        <v>1929.580120159988</v>
+        <v>833.7974125155631</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C36" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D36" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E36" t="n">
-        <v>506.2543262569397</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="F36" t="n">
-        <v>359.7197682838247</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="G36" t="n">
         <v>221.6448824165167</v>
@@ -7014,16 +7016,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K36" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L36" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M36" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N36" t="n">
         <v>1637.630816213677</v>
@@ -7038,28 +7040,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S36" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T36" t="n">
-        <v>2055.124177269372</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U36" t="n">
-        <v>1826.94371292353</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y36" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>379.7790225382929</v>
+        <v>365.947818781887</v>
       </c>
       <c r="C37" t="n">
-        <v>379.7790225382929</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="D37" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E37" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F37" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G37" t="n">
-        <v>210.6410822848024</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H37" t="n">
-        <v>210.6410822848024</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I37" t="n">
-        <v>70.15792508390177</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J37" t="n">
         <v>46.89499644164432</v>
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1206.501278074326</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="C38" t="n">
-        <v>1206.501278074326</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="D38" t="n">
-        <v>1206.501278074326</v>
+        <v>1732.697701360333</v>
       </c>
       <c r="E38" t="n">
-        <v>1206.501278074326</v>
+        <v>1346.909448762089</v>
       </c>
       <c r="F38" t="n">
-        <v>795.5153732847182</v>
+        <v>935.9235439724814</v>
       </c>
       <c r="G38" t="n">
-        <v>377.243605767603</v>
+        <v>517.6517764553662</v>
       </c>
       <c r="H38" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
@@ -7205,19 +7207,19 @@
         <v>2344.749822082216</v>
       </c>
       <c r="U38" t="n">
-        <v>2280.472152663822</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="V38" t="n">
-        <v>1949.409265320252</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="W38" t="n">
-        <v>1596.640610050137</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="X38" t="n">
-        <v>1596.640610050137</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="Y38" t="n">
-        <v>1206.501278074326</v>
+        <v>2090.963399967084</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>814.129334229901</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C39" t="n">
-        <v>639.676304948774</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D39" t="n">
-        <v>490.7418952875228</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="E39" t="n">
-        <v>331.5044402820673</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="F39" t="n">
-        <v>184.9698823089523</v>
+        <v>301.1451777008733</v>
       </c>
       <c r="G39" t="n">
-        <v>46.89499644164432</v>
+        <v>163.0702918335654</v>
       </c>
       <c r="H39" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
@@ -7254,19 +7256,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K39" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L39" t="n">
-        <v>645.6158192373775</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M39" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N39" t="n">
-        <v>1640.568559592725</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O39" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P39" t="n">
         <v>2344.749822082216</v>
@@ -7275,28 +7277,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S39" t="n">
-        <v>2315.069097472212</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T39" t="n">
-        <v>2115.526399526243</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U39" t="n">
-        <v>1887.3459351804</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V39" t="n">
-        <v>1652.193826948657</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W39" t="n">
-        <v>1397.956470220456</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X39" t="n">
-        <v>1190.104970014923</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y39" t="n">
-        <v>982.344671249969</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C40" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D40" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E40" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F40" t="n">
-        <v>2156.875614849916</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G40" t="n">
-        <v>1987.737674596425</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H40" t="n">
-        <v>1828.761111919838</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L40" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M40" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N40" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O40" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q40" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R40" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S40" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T40" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U40" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V40" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W40" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X40" t="n">
-        <v>2303.765562347826</v>
+        <v>449.3360404154141</v>
       </c>
       <c r="Y40" t="n">
-        <v>2303.765562347826</v>
+        <v>228.543461271884</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1159.911464587051</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="C41" t="n">
-        <v>790.948947646639</v>
+        <v>825.5823748407913</v>
       </c>
       <c r="D41" t="n">
-        <v>432.6832490398886</v>
+        <v>825.5823748407913</v>
       </c>
       <c r="E41" t="n">
-        <v>46.89499644164432</v>
+        <v>439.7941222425471</v>
       </c>
       <c r="F41" t="n">
         <v>46.89499644164432</v>
@@ -7409,16 +7411,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L41" t="n">
-        <v>762.5916738244553</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M41" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N41" t="n">
         <v>1610.799342072557</v>
@@ -7433,28 +7435,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S41" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T41" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U41" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V41" t="n">
-        <v>1546.511304651172</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W41" t="n">
-        <v>1546.511304651172</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X41" t="n">
-        <v>1546.511304651172</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y41" t="n">
-        <v>1546.511304651172</v>
+        <v>1581.144731845325</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.8792202047736</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C42" t="n">
-        <v>814.4261909236466</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D42" t="n">
-        <v>665.4917812623953</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E42" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F42" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G42" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H42" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I42" t="n">
         <v>46.89499644164432</v>
@@ -7491,10 +7493,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K42" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L42" t="n">
-        <v>645.6158192373777</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M42" t="n">
         <v>974.4476973832902</v>
@@ -7512,28 +7514,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2344.749822082216</v>
+        <v>2338.227766704349</v>
       </c>
       <c r="S42" t="n">
-        <v>2344.749822082216</v>
+        <v>2176.994211604904</v>
       </c>
       <c r="T42" t="n">
-        <v>2145.207124136247</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U42" t="n">
-        <v>2062.095821155272</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.94371292353</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.706356195328</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.854855989795</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.094557224842</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>365.947818781887</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C43" t="n">
-        <v>197.0116358539801</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="D43" t="n">
-        <v>46.89499644164432</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="E43" t="n">
-        <v>46.89499644164432</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="F43" t="n">
-        <v>46.89499644164432</v>
+        <v>2197.859874584306</v>
       </c>
       <c r="G43" t="n">
-        <v>46.89499644164432</v>
+        <v>2028.721934330815</v>
       </c>
       <c r="H43" t="n">
-        <v>46.89499644164432</v>
+        <v>1869.745371654229</v>
       </c>
       <c r="I43" t="n">
-        <v>46.89499644164432</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="J43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K43" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L43" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N43" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O43" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y43" t="n">
-        <v>547.5962836121267</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>457.8809012312519</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="C44" t="n">
-        <v>457.8809012312519</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="D44" t="n">
-        <v>457.8809012312519</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="E44" t="n">
-        <v>457.8809012312519</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="F44" t="n">
-        <v>46.89499644164432</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G44" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H44" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L44" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M44" t="n">
         <v>1190.549107376119</v>
@@ -7676,22 +7678,22 @@
         <v>2087.181164129222</v>
       </c>
       <c r="T44" t="n">
-        <v>1867.1984047608</v>
+        <v>2012.128812168655</v>
       </c>
       <c r="U44" t="n">
-        <v>1613.411982645667</v>
+        <v>1758.342390053523</v>
       </c>
       <c r="V44" t="n">
-        <v>1282.349095302096</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="W44" t="n">
-        <v>929.5804400319823</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="X44" t="n">
-        <v>556.1146817709025</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="Y44" t="n">
-        <v>457.8809012312519</v>
+        <v>1427.279502709952</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C45" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D45" t="n">
-        <v>447.6797356739884</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E45" t="n">
-        <v>447.6797356739884</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F45" t="n">
         <v>359.7197682838247</v>
@@ -7725,25 +7727,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K45" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L45" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M45" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N45" t="n">
-        <v>1637.630816213677</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O45" t="n">
-        <v>2039.343247810003</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P45" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7752,25 +7754,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S45" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T45" t="n">
-        <v>1923.529830251457</v>
+        <v>2084.763385350902</v>
       </c>
       <c r="U45" t="n">
-        <v>1695.349365905614</v>
+        <v>1856.582921005059</v>
       </c>
       <c r="V45" t="n">
-        <v>1460.197257673872</v>
+        <v>1621.430812773317</v>
       </c>
       <c r="W45" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X45" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y45" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>198.221686764156</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="C46" t="n">
-        <v>198.221686764156</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="D46" t="n">
-        <v>198.221686764156</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="E46" t="n">
-        <v>198.221686764156</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="F46" t="n">
-        <v>198.221686764156</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="G46" t="n">
-        <v>198.221686764156</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H46" t="n">
         <v>46.89499644164432</v>
@@ -8061,10 +8063,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8216,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8304,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8778,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>262.7810435509599</v>
+        <v>262.7810435509596</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9015,16 +9017,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>254.8897585970532</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613908</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696949</v>
       </c>
       <c r="L18" t="n">
-        <v>214.8846069991544</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613908</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>261.4978194579837</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9495,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>101.9014378473433</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>108.5094987082738</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K27" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10203,10 +10205,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>237.9065809724248</v>
       </c>
       <c r="P30" t="n">
-        <v>101.9014378473433</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10428,7 +10430,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K33" t="n">
-        <v>108.5094987082738</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10443,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>261.4978194579837</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>415.7693643006697</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10902,7 +10904,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10917,7 +10919,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>315.4953510853424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>57.08896698613911</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928321</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11139,13 +11141,13 @@
         <v>65.48544285212</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082737</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>309.749325445695</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599042</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>261.4978194579836</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11391,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>101.9014378473433</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>73.6298096400611</v>
       </c>
       <c r="S11" t="n">
         <v>181.3631617334038</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>59.8393013974914</v>
       </c>
       <c r="S12" t="n">
         <v>159.6212195484502</v>
@@ -23425,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>108.9366819640819</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23458,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>133.1410289771301</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U13" t="n">
         <v>286.2893338015361</v>
@@ -23495,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,7 +23509,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23540,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006113</v>
+        <v>73.6298096400611</v>
       </c>
       <c r="S14" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>105.8680639663972</v>
+        <v>53.40447433172193</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749142</v>
+        <v>59.8393013974914</v>
       </c>
       <c r="S15" t="n">
         <v>159.6212195484502</v>
@@ -23662,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>108.9366819640819</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>46.59991698252624</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23695,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>225.6194376234954</v>
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>163.6851955497071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>9.851320470103616</v>
+        <v>82.52325627333491</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23817,16 +23819,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>81.31564129514278</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>120.4210546291163</v>
       </c>
       <c r="G18" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23902,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4465608509556</v>
+        <v>124.1807088168095</v>
       </c>
       <c r="H19" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J19" t="n">
-        <v>54.86879163620181</v>
+        <v>54.8687916362018</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
         <v>214.5288682289405</v>
@@ -23950,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>170.3618464895732</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,22 +23971,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>85.57910512568088</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24023,16 +24025,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>185.4599455421108</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>97.5569935223657</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24063,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>23.83730805897838</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24114,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24145,7 +24147,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24169,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
@@ -24184,13 +24186,13 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>209.1054558247366</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>209.1054558247364</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>356.3079798159951</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,10 +24259,10 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>225.0717459964067</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24297,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>53.38246657340289</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24351,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>143.6184697512196</v>
       </c>
     </row>
     <row r="25">
@@ -24367,13 +24369,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>31.67727564511885</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>56.82271835098054</v>
       </c>
       <c r="G25" t="n">
         <v>167.4465608509556</v>
@@ -24382,7 +24384,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J25" t="n">
         <v>54.86879163620181</v>
@@ -24409,10 +24411,10 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>225.6194376234954</v>
@@ -24421,7 +24423,7 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
         <v>163.6851955497072</v>
@@ -24488,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>188.7481694892494</v>
+        <v>83.48113011016466</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24534,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24573,10 +24575,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>165.5317197306519</v>
+        <v>53.38246657340306</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>55.65811072526559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,7 +24618,7 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
         <v>139.0783256288916</v>
@@ -24655,7 +24657,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>68.86144769834999</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24680,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>56.47632009110259</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>62.26386036229275</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
         <v>217.7829317747374</v>
@@ -24746,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24768,16 +24770,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24813,10 +24815,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>137.1803309947773</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75.89623196975063</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24892,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>208.7815735241403</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>324.2612136135537</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24926,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>405.975977782415</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2485578939812</v>
@@ -24977,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25008,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>53.38246657340287</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>165.5317197306519</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25123,13 +25125,13 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>171.1727984292529</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>114.6489051399081</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25160,16 +25162,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>375.84938726302</v>
       </c>
       <c r="G35" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
         <v>163.6851955497072</v>
@@ -25202,16 +25204,16 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>324.4609024704607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25239,13 +25241,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>60.36469784837671</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25278,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>70.43910215024466</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>166.1390884630954</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J37" t="n">
-        <v>31.83849228036694</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25394,10 +25396,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25406,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>24.68110656882163</v>
       </c>
       <c r="I38" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25445,19 +25447,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>187.6136651697711</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25473,10 +25475,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25485,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>57.98884467712186</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>130.237302184546</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25558,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>94.6423074649262</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620181</v>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R40" t="n">
         <v>152.8143555761653</v>
@@ -25612,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>68.86144769834999</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25631,13 +25633,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>17.90591119881771</v>
       </c>
       <c r="G41" t="n">
         <v>414.089049841944</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>261.520587255585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25719,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>53.38246657340287</v>
       </c>
       <c r="S42" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>143.6184697512197</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25783,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288915</v>
+        <v>108.9366819640815</v>
       </c>
       <c r="J43" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>159.0140864261531</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25871,19 +25873,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>143.4811033337768</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.9864959217995</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25947,13 +25949,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>57.98884467712183</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25992,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26004,7 +26006,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>203.4577711487111</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>141.6219169461219</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>7.573373630534348</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>139.0783256288915</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>643084.8554335589</v>
+        <v>643084.8554335592</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>643084.855433559</v>
+        <v>643084.8554335592</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>643084.8554335592</v>
+        <v>643084.8554335588</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>643084.8554335588</v>
+        <v>643084.8554335592</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>643084.8554335588</v>
+        <v>643084.8554335592</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>643084.855433559</v>
+        <v>643084.8554335588</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>643084.8554335589</v>
+        <v>643084.8554335592</v>
       </c>
     </row>
     <row r="16">
@@ -26314,16 +26316,16 @@
         <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
         <v>317251.3197170584</v>
       </c>
       <c r="F2" t="n">
-        <v>317251.3197170583</v>
+        <v>317251.3197170584</v>
       </c>
       <c r="G2" t="n">
         <v>317251.3197170584</v>
@@ -26332,13 +26334,13 @@
         <v>317251.3197170584</v>
       </c>
       <c r="I2" t="n">
-        <v>317251.3197170583</v>
+        <v>317251.3197170586</v>
       </c>
       <c r="J2" t="n">
-        <v>317251.3197170584</v>
+        <v>317251.3197170586</v>
       </c>
       <c r="K2" t="n">
-        <v>317251.3197170583</v>
+        <v>317251.3197170585</v>
       </c>
       <c r="L2" t="n">
         <v>317251.3197170584</v>
@@ -26347,10 +26349,10 @@
         <v>317251.3197170584</v>
       </c>
       <c r="N2" t="n">
-        <v>317251.3197170587</v>
+        <v>317251.3197170583</v>
       </c>
       <c r="O2" t="n">
-        <v>317251.3197170584</v>
+        <v>317251.3197170583</v>
       </c>
       <c r="P2" t="n">
         <v>317251.3197170584</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>345612.3427789527</v>
+        <v>345612.3427789528</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007602</v>
+        <v>86018.53382007605</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26457,7 +26459,7 @@
         <v>35464.97636158489</v>
       </c>
       <c r="P4" t="n">
-        <v>35464.97636158488</v>
+        <v>35464.97636158489</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26478,13 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>42221.72212544655</v>
+        <v>42221.72212544656</v>
       </c>
       <c r="F5" t="n">
-        <v>42221.72212544655</v>
+        <v>42221.72212544656</v>
       </c>
       <c r="G5" t="n">
-        <v>42221.72212544655</v>
+        <v>42221.72212544657</v>
       </c>
       <c r="H5" t="n">
         <v>42221.72212544655</v>
@@ -26522,46 +26524,46 @@
         <v>50978.98720454338</v>
       </c>
       <c r="C6" t="n">
-        <v>131748.4187360913</v>
+        <v>131748.4187360911</v>
       </c>
       <c r="D6" t="n">
-        <v>131748.418736091</v>
+        <v>131748.4187360912</v>
       </c>
       <c r="E6" t="n">
-        <v>-106047.7215489257</v>
+        <v>-106047.7215489259</v>
       </c>
       <c r="F6" t="n">
         <v>239564.6212300269</v>
       </c>
       <c r="G6" t="n">
+        <v>239564.6212300269</v>
+      </c>
+      <c r="H6" t="n">
         <v>239564.621230027</v>
       </c>
-      <c r="H6" t="n">
-        <v>239564.6212300269</v>
-      </c>
       <c r="I6" t="n">
-        <v>239564.6212300269</v>
+        <v>239564.6212300271</v>
       </c>
       <c r="J6" t="n">
-        <v>176504.6786309208</v>
+        <v>176504.6786309209</v>
       </c>
       <c r="K6" t="n">
-        <v>239564.6212300269</v>
+        <v>239564.6212300271</v>
       </c>
       <c r="L6" t="n">
-        <v>239564.6212300269</v>
+        <v>239564.621230027</v>
       </c>
       <c r="M6" t="n">
         <v>153546.087409951</v>
       </c>
       <c r="N6" t="n">
-        <v>239564.6212300272</v>
+        <v>239564.6212300269</v>
       </c>
       <c r="O6" t="n">
+        <v>239564.6212300268</v>
+      </c>
+      <c r="P6" t="n">
         <v>239564.621230027</v>
-      </c>
-      <c r="P6" t="n">
-        <v>239564.6212300271</v>
       </c>
     </row>
   </sheetData>
@@ -26744,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="G3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="H3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="I3" t="n">
         <v>301.9048087062786</v>
@@ -26802,7 +26804,7 @@
         <v>586.1874555205541</v>
       </c>
       <c r="G4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.1874555205542</v>
       </c>
       <c r="H4" t="n">
         <v>586.1874555205541</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428951</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428951</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428951</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>209.8933976134044</v>
       </c>
       <c r="G2" t="n">
-        <v>203.0173518716929</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27436,16 +27438,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27473,13 +27475,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27512,16 +27514,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>47.36213061104539</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>234.0777810925296</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>184.6994991779021</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27667,10 +27669,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,19 +27697,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>38.41816439321525</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>116.7252732622369</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27746,22 +27748,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.36645333167576</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27813,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27825,7 +27827,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,22 +27861,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>183.2253569475704</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27950,10 +27952,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27989,16 +27991,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>73.17935217313482</v>
       </c>
       <c r="W9" t="n">
-        <v>67.06409450346541</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28050,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28065,13 +28067,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>155.8535025062293</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31756,7 +31758,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069875</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
@@ -31771,28 +31773,28 @@
         <v>213.1129356452115</v>
       </c>
       <c r="N11" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466657</v>
       </c>
       <c r="O11" t="n">
-        <v>204.4927189463719</v>
+        <v>204.492718946372</v>
       </c>
       <c r="P11" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108858</v>
       </c>
       <c r="S11" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393909</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528553</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757694</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087037</v>
       </c>
       <c r="I12" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454671</v>
       </c>
       <c r="K12" t="n">
-        <v>104.8606541711232</v>
+        <v>104.8606541711233</v>
       </c>
       <c r="L12" t="n">
         <v>140.9980901415503</v>
       </c>
       <c r="M12" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N12" t="n">
-        <v>168.8929552025813</v>
+        <v>168.8929552025814</v>
       </c>
       <c r="O12" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P12" t="n">
-        <v>124.0031279382449</v>
+        <v>124.003127938245</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988243</v>
       </c>
       <c r="R12" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515173</v>
       </c>
       <c r="S12" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T12" t="n">
-        <v>2.617457728311981</v>
+        <v>2.617457728311982</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051116</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H13" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618702</v>
       </c>
       <c r="I13" t="n">
-        <v>16.37214929836672</v>
+        <v>16.37214929836673</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047098</v>
       </c>
       <c r="K13" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354493</v>
       </c>
       <c r="L13" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823742</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069448</v>
       </c>
       <c r="N13" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545562</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598727</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292345</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464809</v>
       </c>
       <c r="R13" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100417</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031739</v>
       </c>
       <c r="T13" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,7 +31995,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069875</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
@@ -32008,28 +32010,28 @@
         <v>213.1129356452115</v>
       </c>
       <c r="N14" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466657</v>
       </c>
       <c r="O14" t="n">
-        <v>204.4927189463719</v>
+        <v>204.492718946372</v>
       </c>
       <c r="P14" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108858</v>
       </c>
       <c r="S14" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393909</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528553</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757694</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087037</v>
       </c>
       <c r="I15" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454671</v>
       </c>
       <c r="K15" t="n">
-        <v>104.8606541711232</v>
+        <v>104.8606541711233</v>
       </c>
       <c r="L15" t="n">
         <v>140.9980901415503</v>
       </c>
       <c r="M15" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N15" t="n">
-        <v>168.8929552025813</v>
+        <v>168.8929552025814</v>
       </c>
       <c r="O15" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P15" t="n">
-        <v>124.0031279382449</v>
+        <v>124.003127938245</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988243</v>
       </c>
       <c r="R15" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515173</v>
       </c>
       <c r="S15" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T15" t="n">
-        <v>2.617457728311981</v>
+        <v>2.617457728311982</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051116</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H16" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618702</v>
       </c>
       <c r="I16" t="n">
-        <v>16.37214929836672</v>
+        <v>16.37214929836673</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047098</v>
       </c>
       <c r="K16" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354493</v>
       </c>
       <c r="L16" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823742</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069448</v>
       </c>
       <c r="N16" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545562</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598727</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292345</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464809</v>
       </c>
       <c r="R16" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100417</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031739</v>
       </c>
       <c r="T16" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,7 +32232,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I17" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069875</v>
       </c>
       <c r="J17" t="n">
         <v>103.0102241525006</v>
@@ -32245,28 +32247,28 @@
         <v>213.1129356452115</v>
       </c>
       <c r="N17" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466657</v>
       </c>
       <c r="O17" t="n">
-        <v>204.4927189463719</v>
+        <v>204.492718946372</v>
       </c>
       <c r="P17" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R17" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108858</v>
       </c>
       <c r="S17" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T17" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393909</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528553</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757694</v>
       </c>
       <c r="H18" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087037</v>
       </c>
       <c r="I18" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J18" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454671</v>
       </c>
       <c r="K18" t="n">
-        <v>104.8606541711232</v>
+        <v>104.8606541711233</v>
       </c>
       <c r="L18" t="n">
         <v>140.9980901415503</v>
       </c>
       <c r="M18" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N18" t="n">
-        <v>168.8929552025813</v>
+        <v>168.8929552025814</v>
       </c>
       <c r="O18" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P18" t="n">
-        <v>124.0031279382449</v>
+        <v>124.003127938245</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988243</v>
       </c>
       <c r="R18" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515173</v>
       </c>
       <c r="S18" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T18" t="n">
-        <v>2.617457728311981</v>
+        <v>2.617457728311982</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051116</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H19" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618702</v>
       </c>
       <c r="I19" t="n">
-        <v>16.37214929836672</v>
+        <v>16.37214929836673</v>
       </c>
       <c r="J19" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047098</v>
       </c>
       <c r="K19" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354493</v>
       </c>
       <c r="L19" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823742</v>
       </c>
       <c r="M19" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069448</v>
       </c>
       <c r="N19" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545562</v>
       </c>
       <c r="O19" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598727</v>
       </c>
       <c r="P19" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292345</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464809</v>
       </c>
       <c r="R19" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100417</v>
       </c>
       <c r="S19" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031739</v>
       </c>
       <c r="T19" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,7 +32469,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I20" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J20" t="n">
         <v>103.0102241525006</v>
@@ -32488,22 +32490,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P20" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H21" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I21" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J21" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
@@ -32558,25 +32560,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M21" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N21" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O21" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P21" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S21" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T21" t="n">
         <v>2.617457728311981</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H22" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I22" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J22" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L22" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N22" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R22" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T22" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34781,10 +34783,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>217.7067518141195</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -35024,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788811</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L11" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M11" t="n">
         <v>432.2802359107712</v>
       </c>
       <c r="N11" t="n">
-        <v>424.4951865620588</v>
+        <v>424.4951865620589</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P11" t="n">
-        <v>265.0955169306804</v>
+        <v>265.0955169306805</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828883</v>
+        <v>60.60559248828886</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093428</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
@@ -35498,13 +35500,13 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N12" t="n">
-        <v>300.3322866702078</v>
+        <v>300.3322866702076</v>
       </c>
       <c r="O12" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P12" t="n">
-        <v>308.4914891638518</v>
+        <v>308.4914891638519</v>
       </c>
       <c r="Q12" t="n">
         <v>152.98832074971</v>
@@ -35568,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766208</v>
       </c>
       <c r="L13" t="n">
-        <v>108.5302095485535</v>
+        <v>108.5302095485536</v>
       </c>
       <c r="M13" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N13" t="n">
         <v>127.4430518046842</v>
@@ -35583,7 +35585,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781694</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788811</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L14" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M14" t="n">
         <v>432.2802359107712</v>
       </c>
       <c r="N14" t="n">
-        <v>424.4951865620588</v>
+        <v>424.4951865620589</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P14" t="n">
-        <v>265.0955169306804</v>
+        <v>265.0955169306805</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828883</v>
+        <v>60.60559248828886</v>
       </c>
       <c r="K15" t="n">
-        <v>231.4844522093428</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L15" t="n">
         <v>373.2840556651353</v>
@@ -35735,16 +35737,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N15" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O15" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P15" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766208</v>
       </c>
       <c r="L16" t="n">
-        <v>108.5302095485535</v>
+        <v>108.5302095485536</v>
       </c>
       <c r="M16" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N16" t="n">
         <v>127.4430518046842</v>
@@ -35820,7 +35822,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781694</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788811</v>
       </c>
       <c r="K17" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L17" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M17" t="n">
         <v>432.2802359107712</v>
       </c>
       <c r="N17" t="n">
-        <v>424.4951865620588</v>
+        <v>424.4951865620589</v>
       </c>
       <c r="O17" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P17" t="n">
-        <v>265.0955169306804</v>
+        <v>265.0955169306805</v>
       </c>
       <c r="Q17" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.60559248828886</v>
       </c>
       <c r="K18" t="n">
-        <v>231.4844522093428</v>
+        <v>167.9114421664592</v>
       </c>
       <c r="L18" t="n">
-        <v>217.3283173608305</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M18" t="n">
         <v>488.1091505729034</v>
@@ -35975,13 +35977,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P18" t="n">
-        <v>308.4914891638518</v>
+        <v>308.4914891638519</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766208</v>
       </c>
       <c r="L19" t="n">
-        <v>108.5302095485535</v>
+        <v>108.5302095485536</v>
       </c>
       <c r="M19" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N19" t="n">
         <v>127.4430518046842</v>
@@ -36057,7 +36059,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P19" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781694</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K20" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L20" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M20" t="n">
         <v>432.2802359107712</v>
@@ -36133,13 +36135,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P20" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K21" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36212,13 +36214,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P21" t="n">
-        <v>308.4914891638518</v>
+        <v>91.93015837125802</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M22" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N22" t="n">
         <v>127.4430518046842</v>
@@ -36294,7 +36296,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K24" t="n">
-        <v>75.52871390503797</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36689,10 +36691,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>231.4844522093428</v>
@@ -36923,10 +36925,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O30" t="n">
-        <v>405.7701329255822</v>
+        <v>249.8143946212776</v>
       </c>
       <c r="P30" t="n">
-        <v>91.93015837125802</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
         <v>152.98832074971</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37163,10 +37165,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P33" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K36" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651353</v>
@@ -37394,7 +37396,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>516.8936174628016</v>
+        <v>453.3206074199177</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255822</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37637,7 +37639,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P39" t="n">
-        <v>305.5240716092571</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>373.423817067563</v>
       </c>
       <c r="M41" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107708</v>
       </c>
       <c r="N41" t="n">
         <v>424.4951865620588</v>
@@ -37859,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>231.4844522093429</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M42" t="n">
-        <v>332.1534122685986</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
         <v>516.8936174628016</v>
@@ -38035,7 +38037,7 @@
         <v>265.0955169306804</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.0739155037669</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K45" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38111,10 +38113,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P45" t="n">
-        <v>308.4914891638518</v>
+        <v>91.93015837125802</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
